--- a/Data/159_df_metadata_merged_landcover_allcols.xlsx
+++ b/Data/159_df_metadata_merged_landcover_allcols.xlsx
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>66.09</v>
       </c>
       <c r="O2">
         <v>45.33</v>
@@ -579,7 +579,7 @@
         <v>20.21</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>80.16</v>
       </c>
       <c r="O3">
         <v>42.17</v>
@@ -686,7 +686,7 @@
         <v>33.46</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>75.78</v>
       </c>
       <c r="O4">
         <v>42.38</v>
@@ -793,7 +793,7 @@
         <v>29.33</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>67.41</v>
       </c>
       <c r="O5">
         <v>31.95</v>
@@ -900,7 +900,7 @@
         <v>30.2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>77.14</v>
       </c>
       <c r="O6">
         <v>45.18</v>
@@ -1007,7 +1007,7 @@
         <v>29.28</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="O7">
         <v>15.85</v>
@@ -1114,7 +1114,7 @@
         <v>48.54</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>65.39</v>
       </c>
       <c r="O8">
         <v>5.1</v>
@@ -1221,7 +1221,7 @@
         <v>51.8</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>64.16</v>
       </c>
       <c r="O9">
         <v>46.55</v>
@@ -1328,7 +1328,7 @@
         <v>15.65</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>86.97674418604652</v>
       </c>
       <c r="O10">
         <v>79.18604651162791</v>
@@ -1435,7 +1435,7 @@
         <v>7.790697674418605</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>3.023255813953488</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>68.85775862068965</v>
       </c>
       <c r="O11">
         <v>57.75862068965517</v>
@@ -1542,7 +1542,7 @@
         <v>8.943965517241379</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.801724137931035</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>68.85775862068965</v>
       </c>
       <c r="O12">
         <v>57.75862068965517</v>
@@ -1649,7 +1649,7 @@
         <v>8.943965517241379</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2.801724137931035</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>67.25663716814158</v>
       </c>
       <c r="O13">
         <v>53.1921618204804</v>
@@ -1756,7 +1756,7 @@
         <v>13.36915297092288</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>11.28318584070796</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>77.14079363729094</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>72.77326372661993</v>
       </c>
       <c r="O15">
         <v>4.14116055461677</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>87.75797758128448</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>91.73114554835955</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>86.29784183108426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>63.1581082885243</v>
       </c>
       <c r="O19">
         <v>36.0517768137117</v>
@@ -2398,7 +2398,7 @@
         <v>22.84579540709997</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>4.353196274297732</v>
       </c>
       <c r="S19">
         <v>1.542378801638775</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>80.06940831724555</v>
       </c>
       <c r="O20">
         <v>46.50037794381768</v>
@@ -2505,7 +2505,7 @@
         <v>31.17141925374652</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>8.669286335698697</v>
       </c>
       <c r="S20">
         <v>0.5106837692517379</v>
@@ -2600,7 +2600,7 @@
         <v>0.220591080837085</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>78.10793098656561</v>
       </c>
       <c r="O21">
         <v>30.04912951054605</v>
@@ -2612,7 +2612,7 @@
         <v>38.36453504970527</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>8.633329400178628</v>
       </c>
       <c r="S21">
         <v>4.504558835785655</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>71.57263566006682</v>
       </c>
       <c r="O22">
         <v>24.31839218109338</v>
@@ -2719,7 +2719,7 @@
         <v>44.7858768752794</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.2338942968605873</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2816,15 +2816,6 @@
       <c r="N23">
         <v>73.5</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2859,9 +2850,6 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
@@ -2923,15 +2911,6 @@
       <c r="N24">
         <v>86.2</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
@@ -2966,9 +2945,6 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
         <v>0</v>
       </c>
       <c r="AE24">
@@ -3030,15 +3006,6 @@
       <c r="N25">
         <v>78</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
@@ -3073,9 +3040,6 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
@@ -3137,15 +3101,6 @@
       <c r="N26">
         <v>66.09999999999999</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0</v>
       </c>
@@ -3180,9 +3135,6 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26">
@@ -3242,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.945716400218148</v>
       </c>
       <c r="O27">
         <v>2.141897325977212</v>
@@ -3254,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>49.19518326449716</v>
       </c>
       <c r="S27">
         <v>5.386537440635712</v>
@@ -3349,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>50.26072108762709</v>
       </c>
       <c r="O28">
         <v>8.502588918139988</v>
@@ -3361,7 +3313,7 @@
         <v>7.979972478577821</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>26.96750672411539</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3456,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>73.37972850445986</v>
       </c>
       <c r="O29">
         <v>15.9363041013239</v>
@@ -3468,7 +3420,7 @@
         <v>25.04034429594678</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>13.4664149626755</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3563,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>0.2727278322941567</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3575,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>73.29068255796669</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3670,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>64.42741282436558</v>
       </c>
       <c r="O31">
         <v>0.9314981380136684</v>
@@ -3682,7 +3634,7 @@
         <v>9.352272776272313</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>16.59425778486688</v>
       </c>
       <c r="S31">
         <v>2.760061364229727</v>
@@ -3777,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>75.22951658747687</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -3884,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>37.88811769866609</v>
       </c>
       <c r="O33">
         <v>12.73927446952826</v>
@@ -3896,7 +3848,7 @@
         <v>1.094097940779746</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>33.19745020685545</v>
       </c>
       <c r="S33">
         <v>5.071789883028254</v>
@@ -3991,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>55.3049603754964</v>
       </c>
       <c r="O34">
         <v>0.6630003979352234</v>
@@ -4003,7 +3955,7 @@
         <v>7.069035616714446</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>13.16294143479802</v>
       </c>
       <c r="S34">
         <v>2.237184793401103</v>
@@ -4098,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>80.47898892220675</v>
       </c>
       <c r="O35">
         <v>0.2088289457138058</v>
@@ -4110,7 +4062,7 @@
         <v>28.83947619008931</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1.531275256514616</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4205,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>74.94295604663255</v>
       </c>
       <c r="O36">
         <v>1.65317552897907</v>
@@ -4217,7 +4169,7 @@
         <v>4.06230130426155</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1.522974814360596</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4312,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>73.11865865515256</v>
       </c>
       <c r="O37">
         <v>1.206125705303697</v>
@@ -4324,7 +4276,7 @@
         <v>19.46429013969998</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>2.905590554754512</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4419,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>74.11244287002191</v>
       </c>
       <c r="O38">
         <v>15.6501433993029</v>
@@ -4431,7 +4383,7 @@
         <v>12.15617252685914</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>0.5811948430577305</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4526,7 +4478,7 @@
         <v>4.91649504211248</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>55.96222429175471</v>
       </c>
       <c r="O39">
         <v>19.65167600150791</v>
@@ -4538,7 +4490,7 @@
         <v>34.3324545264471</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>10.9298737412319</v>
       </c>
       <c r="S39">
         <v>3.73539243850056</v>
@@ -4633,7 +4585,7 @@
         <v>2.679134393080659</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>54.58951727302779</v>
       </c>
       <c r="O40">
         <v>13.82406061203855</v>
@@ -4645,7 +4597,7 @@
         <v>30.90299980745645</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>2.086250970151851</v>
       </c>
       <c r="S40">
         <v>1.257598222939876</v>
@@ -4740,7 +4692,7 @@
         <v>6.987796089961732</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>67.99081269047588</v>
       </c>
       <c r="O41">
         <v>21.73232997101412</v>
@@ -4752,7 +4704,7 @@
         <v>36.953555031784</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>4.217153810347236</v>
       </c>
       <c r="S41">
         <v>2.087394635361917</v>
@@ -4847,7 +4799,7 @@
         <v>0.6119208058315428</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>71.67161998732814</v>
       </c>
       <c r="O42">
         <v>15.2895467365983</v>
@@ -4859,7 +4811,7 @@
         <v>39.15934560619267</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>7.036012078981011</v>
       </c>
       <c r="S42">
         <v>4.236464890925911</v>
@@ -4954,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>62.19209565382619</v>
       </c>
       <c r="O43">
         <v>33.30619173826697</v>
@@ -5061,7 +5013,7 @@
         <v>18.49625872954079</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>56.97349128653126</v>
       </c>
       <c r="O44">
         <v>31.41913862242834</v>
@@ -5073,7 +5025,7 @@
         <v>19.84044546845812</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>9.838022783602561</v>
       </c>
       <c r="S44">
         <v>5.344393555717073</v>
@@ -5168,7 +5120,7 @@
         <v>0.7125563579458127</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>62.7962522322463</v>
       </c>
       <c r="O45">
         <v>19.7047665874863</v>
@@ -5180,7 +5132,7 @@
         <v>32.12532693519067</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>4.795516923097312</v>
       </c>
       <c r="S45">
         <v>4.330321314936567</v>
@@ -5275,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>81.42929255682996</v>
       </c>
       <c r="O46">
         <v>16.74648626599186</v>
@@ -5287,7 +5239,7 @@
         <v>38.65806043721713</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>6.042605533863371</v>
       </c>
       <c r="S46">
         <v>2.357011920641038</v>
@@ -5382,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>64.1999107390167</v>
       </c>
       <c r="O47">
         <v>46.74532350474322</v>
@@ -5394,7 +5346,7 @@
         <v>15.89920202249121</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>8.53802921484565</v>
       </c>
       <c r="S47">
         <v>1.484086733879446</v>
@@ -5489,7 +5441,7 @@
         <v>1.428651287822474</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>52.50143251260668</v>
       </c>
       <c r="O48">
         <v>12.31322718465114</v>
@@ -5501,7 +5453,7 @@
         <v>30.91360131557528</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>2.170323957585325</v>
       </c>
       <c r="S48">
         <v>1.265115344639808</v>
@@ -5596,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>64.12528125592797</v>
       </c>
       <c r="O49">
         <v>16.38565895819289</v>
@@ -5608,7 +5560,7 @@
         <v>46.99732906018885</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>2.071831132815165</v>
       </c>
       <c r="S49">
         <v>1.668780455494413</v>
@@ -5703,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>65.42007533104091</v>
       </c>
       <c r="O50">
         <v>32.71704717515011</v>
@@ -5715,7 +5667,7 @@
         <v>31.27253076174355</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>5.777925058623288</v>
       </c>
       <c r="S50">
         <v>1.653267059405602</v>
@@ -5810,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>78.76049247193396</v>
       </c>
       <c r="O51">
         <v>45.65770443410393</v>
@@ -5822,7 +5774,7 @@
         <v>30.64929949192675</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>6.639165919957398</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -5917,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>63.56529815952911</v>
       </c>
       <c r="O52">
         <v>33.41621653006295</v>
@@ -5929,7 +5881,7 @@
         <v>18.8592296984319</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>10.60910836007211</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -6024,7 +5976,7 @@
         <v>0.219821547433524</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>78.0603527336621</v>
       </c>
       <c r="O53">
         <v>30.04821026241507</v>
@@ -6036,7 +5988,7 @@
         <v>38.33439694450348</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>8.604742086582633</v>
       </c>
       <c r="S53">
         <v>4.488844653329641</v>
@@ -6131,7 +6083,7 @@
         <v>0.2341116259500335</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>78.10753765339771</v>
       </c>
       <c r="O54">
         <v>30.55720789707633</v>
@@ -6143,7 +6095,7 @@
         <v>37.76801862876904</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>8.587371946560946</v>
       </c>
       <c r="S54">
         <v>4.476847110882324</v>
@@ -6238,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>62.70127981050267</v>
       </c>
       <c r="O55">
         <v>16.98643863071764</v>
@@ -6250,7 +6202,7 @@
         <v>39.79714347847836</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>0.5762332441197436</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -6345,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>73.7826968708834</v>
       </c>
       <c r="O56">
         <v>17.33536835057098</v>
@@ -6357,7 +6309,7 @@
         <v>52.46704226827762</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>15.41070374272655</v>
       </c>
       <c r="S56">
         <v>7.16071661374829</v>
@@ -6452,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>72.78567923807694</v>
       </c>
       <c r="O57">
         <v>5.766933190770629</v>
@@ -6464,7 +6416,7 @@
         <v>62.90444071645728</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>0.6188982870271988</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -6559,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>72.64457354779189</v>
       </c>
       <c r="O58">
         <v>39.986682091043</v>
@@ -6571,7 +6523,7 @@
         <v>29.60323533510048</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>5.379702208748427</v>
       </c>
       <c r="S58">
         <v>0.3224334453177654</v>
@@ -6666,7 +6618,7 @@
         <v>1.800208140696467</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>77.44141488603549</v>
       </c>
       <c r="O59">
         <v>28.80734965413727</v>
@@ -6678,7 +6630,7 @@
         <v>42.41424665006274</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>5.663469796662925</v>
       </c>
       <c r="S59">
         <v>2.980023677463922</v>
@@ -6773,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>89.84978602745963</v>
       </c>
       <c r="O60">
         <v>24.07167563580808</v>
@@ -6880,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>57.60729283910511</v>
       </c>
       <c r="O61">
         <v>29.80363254284943</v>
@@ -6892,7 +6844,7 @@
         <v>23.95559660312362</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>3.319715543828756</v>
       </c>
       <c r="S61">
         <v>1.137400152942005</v>
@@ -6987,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>83.77156673129838</v>
       </c>
       <c r="O62">
         <v>40.74516419634235</v>
@@ -6999,7 +6951,7 @@
         <v>37.48046467133921</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>3.652159515644756</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -7094,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>75.54134759882272</v>
       </c>
       <c r="O63">
         <v>12.84279381963771</v>
@@ -7106,7 +7058,7 @@
         <v>44.19643939131269</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>0.7628734373745703</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -7201,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>80.31081154817285</v>
       </c>
       <c r="O64">
         <v>45.30185806354988</v>
@@ -7213,7 +7165,7 @@
         <v>32.8312889618009</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>5.771404724780002</v>
       </c>
       <c r="S64">
         <v>0.6365480912864507</v>
@@ -7308,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>80.51357925473094</v>
       </c>
       <c r="O65">
         <v>56.08025749242477</v>
@@ -7320,7 +7272,7 @@
         <v>19.39525959976604</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>2.968549600150132</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -7415,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>81.35364044548649</v>
       </c>
       <c r="O66">
         <v>32.79109306823402</v>
@@ -7427,7 +7379,7 @@
         <v>45.00469503563635</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>8.926409174780623</v>
       </c>
       <c r="S66">
         <v>3.151351674502687</v>
@@ -7522,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>81.66280391133517</v>
       </c>
       <c r="O67">
         <v>33.0095635426633</v>
@@ -7534,7 +7486,7 @@
         <v>44.78910430401655</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>8.478769908901098</v>
       </c>
       <c r="S67">
         <v>2.947043021971288</v>
@@ -7629,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>81.02586561773606</v>
       </c>
       <c r="O68">
         <v>57.25355073477179</v>
@@ -7641,7 +7593,7 @@
         <v>22.28271601859634</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>3.354642712832195</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -7736,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>80.83602300992152</v>
       </c>
       <c r="O69">
         <v>53.92388226267956</v>
@@ -7748,7 +7700,7 @@
         <v>25.27429230671268</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>2.88211730887596</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -7843,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>84.75392801954621</v>
       </c>
       <c r="O70">
         <v>24.94679775058817</v>
@@ -7950,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>79.36640777736228</v>
       </c>
       <c r="O71">
         <v>48.75417683011412</v>
@@ -7962,7 +7914,7 @@
         <v>28.00208209462396</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>6.956236558435129</v>
       </c>
       <c r="S71">
         <v>0.2802440021352919</v>
@@ -8057,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>69.40769697448474</v>
       </c>
       <c r="O72">
         <v>17.67613363869004</v>
@@ -8069,7 +8021,7 @@
         <v>45.8401545737931</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>1.563339657696347</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -8164,7 +8116,7 @@
         <v>8.265127248861873</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>56.57476119031467</v>
       </c>
       <c r="O73">
         <v>13.31110080315514</v>
@@ -8176,7 +8128,7 @@
         <v>38.40873456283687</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>1.625090904274282</v>
       </c>
       <c r="S73">
         <v>0.7529386912608985</v>
@@ -8271,7 +8223,7 @@
         <v>2.400454239445537</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>58.3574281261688</v>
       </c>
       <c r="O74">
         <v>19.87881188421309</v>
@@ -8283,7 +8235,7 @@
         <v>29.56285871661592</v>
       </c>
       <c r="R74">
-        <v>0</v>
+        <v>26.35661774365619</v>
       </c>
       <c r="S74">
         <v>15.92619185920652</v>
@@ -8378,7 +8330,7 @@
         <v>1.650613948876363</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>79.31594504268541</v>
       </c>
       <c r="O75">
         <v>20.91712918853634</v>
@@ -8390,7 +8342,7 @@
         <v>51.38937983189489</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>4.823912128606558</v>
       </c>
       <c r="S75">
         <v>2.454291756861483</v>
@@ -8485,7 +8437,7 @@
         <v>18.98049022969667</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>54.81498153925603</v>
       </c>
       <c r="O76">
         <v>17.2095513118488</v>
@@ -8497,7 +8449,7 @@
         <v>32.58629867549387</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>2.551822711517922</v>
       </c>
       <c r="S76">
         <v>0.855195812444036</v>
@@ -8592,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>42.51769026279446</v>
       </c>
       <c r="O77">
         <v>12.31970699000459</v>
@@ -8604,7 +8556,7 @@
         <v>25.33757534444607</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>1.327625311751483</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -8699,7 +8651,7 @@
         <v>5.845270540967756</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>73.31951031304369</v>
       </c>
       <c r="O78">
         <v>22.37740885969119</v>
@@ -8711,7 +8663,7 @@
         <v>37.97929691273414</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>1.909342450918183</v>
       </c>
       <c r="S78">
         <v>0.5624869136068055</v>
@@ -8806,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>70.01956507667637</v>
       </c>
       <c r="O79">
         <v>11.62282718955576</v>
@@ -8818,7 +8770,7 @@
         <v>47.20381954930237</v>
       </c>
       <c r="R79">
-        <v>0</v>
+        <v>1.415927912837631</v>
       </c>
       <c r="S79">
         <v>0.2241404595045615</v>
@@ -8913,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>64.37627084029971</v>
       </c>
       <c r="O80">
         <v>2.069709032341725</v>
@@ -8925,7 +8877,7 @@
         <v>5.138873419068678</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>2.938949016908311</v>
       </c>
       <c r="S80">
         <v>1.677757513737322</v>
@@ -9020,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>65.08169326812285</v>
       </c>
       <c r="O81">
         <v>19.60012409645134</v>
@@ -9032,7 +8984,7 @@
         <v>7.335680534630421</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>2.214688872503557</v>
       </c>
       <c r="S81">
         <v>2.214688872503557</v>
@@ -9127,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>53.66788426763996</v>
       </c>
       <c r="O82">
         <v>21.0185359193589</v>
@@ -9139,7 +9091,7 @@
         <v>7.871255991099948</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>10.34668835148259</v>
       </c>
       <c r="S82">
         <v>1.427643205769132</v>
@@ -9234,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>68.24656531335694</v>
       </c>
       <c r="O83">
         <v>11.04507523469325</v>
@@ -9246,7 +9198,7 @@
         <v>8.922701096401882</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>11.3285785113237</v>
       </c>
       <c r="S83">
         <v>6.436803400380454</v>
@@ -9341,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>77.31182186132298</v>
       </c>
       <c r="O84">
         <v>13.05308936741933</v>
@@ -9353,7 +9305,7 @@
         <v>19.5868475864269</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>1.779698211041209</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -9448,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>70.76318843203714</v>
       </c>
       <c r="O85">
         <v>9.442187708011566</v>
@@ -9460,7 +9412,7 @@
         <v>8.776498631857262</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>5.732983613553893</v>
       </c>
       <c r="S85">
         <v>3.224519976726511</v>
@@ -9555,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>88.08895632972508</v>
       </c>
       <c r="O86">
         <v>31.38468855652749</v>
@@ -9662,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>63.21017357998198</v>
       </c>
       <c r="O87">
         <v>29.03585648788885</v>
@@ -9769,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>89.53843849645025</v>
       </c>
       <c r="O88">
         <v>4.586106027952052</v>
@@ -9876,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>87.80157322331155</v>
       </c>
       <c r="O89">
         <v>50.06612189293259</v>
@@ -9983,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>86.97194553891732</v>
       </c>
       <c r="O90">
         <v>14.07307924074112</v>
@@ -10090,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>84.39556873425781</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -10197,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>78.87482691925524</v>
       </c>
       <c r="O92">
         <v>31.14284357153195</v>
@@ -10304,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>81.39548788302689</v>
       </c>
       <c r="O93">
         <v>5.419217929328444</v>
@@ -10411,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>85.82377923024782</v>
       </c>
       <c r="O94">
         <v>43.54295417528986</v>
@@ -10518,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>79.34972802352885</v>
       </c>
       <c r="O95">
         <v>47.75148816527604</v>
@@ -10625,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>77.59021549947485</v>
       </c>
       <c r="O96">
         <v>12.9563933601528</v>
@@ -10732,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>82.46348349757557</v>
       </c>
       <c r="O97">
         <v>4.6073229719961</v>
@@ -10839,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>89.67369157786214</v>
       </c>
       <c r="O98">
         <v>9.968418645047215</v>
@@ -10946,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>75.4082587056395</v>
       </c>
       <c r="O99">
         <v>30.9119725900477</v>
@@ -11053,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>91.59842507420005</v>
       </c>
       <c r="O100">
         <v>0.0003984796486548586</v>
@@ -11160,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>85.52631504320564</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -11267,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>87.53271996858494</v>
       </c>
       <c r="O102">
         <v>47.30671299197004</v>
@@ -11374,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>78.62836222930245</v>
       </c>
       <c r="O103">
         <v>42.07293200836562</v>
@@ -11481,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>83.90312425707026</v>
       </c>
       <c r="O104">
         <v>6.83201426184091</v>
@@ -11588,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>0</v>
+        <v>86.96629571490303</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -11695,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>92.08464293640768</v>
       </c>
       <c r="O106">
         <v>37.76299689054448</v>
@@ -11802,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>76.55407097629603</v>
       </c>
       <c r="O107">
         <v>40.1429885589618</v>
@@ -11909,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>59.6925854304729</v>
       </c>
       <c r="O108">
         <v>15.89084663374409</v>
@@ -12016,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>76.9384191063113</v>
       </c>
       <c r="O109">
         <v>53.0514140527782</v>
@@ -12123,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>70.5498431148126</v>
       </c>
       <c r="O110">
         <v>23.15501161573155</v>
@@ -12230,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>74.70104505125212</v>
       </c>
       <c r="O111">
         <v>13.13201738628856</v>
@@ -12337,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>76.45526230819705</v>
       </c>
       <c r="O112">
         <v>14.07459005741998</v>
@@ -12444,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>0</v>
+        <v>86.11737308419762</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -12551,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>87.37160308877111</v>
       </c>
       <c r="O114">
         <v>47.49063550863744</v>
@@ -12658,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>92.28604127808728</v>
       </c>
       <c r="O115">
         <v>39.21366546700975</v>
@@ -12765,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>81.91588842512147</v>
       </c>
       <c r="O116">
         <v>30.90489658019212</v>
@@ -13829,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>66.23999999999999</v>
+        <v>66.239</v>
       </c>
       <c r="O126">
         <v>0.122</v>
@@ -14043,7 +13995,7 @@
         <v>0.018</v>
       </c>
       <c r="N128">
-        <v>58.118</v>
+        <v>58.11799999999999</v>
       </c>
       <c r="O128">
         <v>1.254</v>
@@ -14150,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>80.40900000000001</v>
+        <v>80.40899999999999</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -14271,15 +14223,6 @@
       <c r="R130">
         <v>10.062</v>
       </c>
-      <c r="S130">
-        <v>0</v>
-      </c>
-      <c r="T130">
-        <v>0</v>
-      </c>
-      <c r="U130">
-        <v>0</v>
-      </c>
       <c r="V130">
         <v>0.003</v>
       </c>
@@ -14364,7 +14307,7 @@
         <v>3.785</v>
       </c>
       <c r="N131">
-        <v>77.586</v>
+        <v>77.587</v>
       </c>
       <c r="O131">
         <v>4.822</v>
@@ -14377,15 +14320,6 @@
       </c>
       <c r="R131">
         <v>1.458</v>
-      </c>
-      <c r="S131">
-        <v>0</v>
-      </c>
-      <c r="T131">
-        <v>0</v>
-      </c>
-      <c r="U131">
-        <v>0</v>
       </c>
       <c r="V131">
         <v>0.079</v>
@@ -14792,7 +14726,7 @@
         <v>0.063</v>
       </c>
       <c r="N135">
-        <v>72.538</v>
+        <v>72.539</v>
       </c>
       <c r="O135">
         <v>0.205</v>
@@ -15541,7 +15475,7 @@
         <v>0.478</v>
       </c>
       <c r="N142">
-        <v>59.056</v>
+        <v>59.055</v>
       </c>
       <c r="O142">
         <v>0.256</v>
@@ -15769,15 +15703,6 @@
       <c r="R144">
         <v>0.281</v>
       </c>
-      <c r="S144">
-        <v>0</v>
-      </c>
-      <c r="T144">
-        <v>0</v>
-      </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
       <c r="V144">
         <v>0.031</v>
       </c>
@@ -15876,15 +15801,6 @@
       <c r="R145">
         <v>3.681</v>
       </c>
-      <c r="S145">
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <v>0</v>
-      </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
       <c r="V145">
         <v>0.1</v>
       </c>
@@ -16290,7 +16206,7 @@
         <v>0.65</v>
       </c>
       <c r="N149">
-        <v>80.27500000000001</v>
+        <v>80.27399999999999</v>
       </c>
       <c r="O149">
         <v>0.707</v>
@@ -16397,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>76.605</v>
+        <v>76.60400000000001</v>
       </c>
       <c r="O150">
         <v>1.096</v>
@@ -16504,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <v>72.616</v>
+        <v>72.61600000000001</v>
       </c>
       <c r="O151">
         <v>0.654</v>
@@ -17253,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <v>95.90000000000001</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="O158">
         <v>1.5</v>
@@ -18656,7 +18572,7 @@
         <v>11</v>
       </c>
       <c r="R171">
-        <v>9.1</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="S171">
         <v>8.800000000000001</v>
@@ -20365,7 +20281,7 @@
         <v>4.01</v>
       </c>
       <c r="R187">
-        <v>48.556</v>
+        <v>48.557</v>
       </c>
       <c r="S187">
         <v>18.374</v>
@@ -20787,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="N194">
-        <v>2.735</v>
+        <v>2.736</v>
       </c>
       <c r="O194">
         <v>1.642</v>
@@ -21208,7 +21124,7 @@
         <v>0</v>
       </c>
       <c r="R199">
-        <v>33.674</v>
+        <v>33.673</v>
       </c>
       <c r="S199">
         <v>0</v>
@@ -23657,7 +23573,7 @@
         <v>37.147</v>
       </c>
       <c r="N222">
-        <v>40.895</v>
+        <v>40.894</v>
       </c>
       <c r="O222">
         <v>2.791</v>
@@ -23764,7 +23680,7 @@
         <v>44.866</v>
       </c>
       <c r="N223">
-        <v>37.471</v>
+        <v>37.47</v>
       </c>
       <c r="O223">
         <v>2.732</v>
@@ -23871,7 +23787,7 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <v>8.808</v>
+        <v>8.807</v>
       </c>
       <c r="O224">
         <v>0.253</v>
@@ -25029,7 +24945,7 @@
         <v>2.172</v>
       </c>
       <c r="N236">
-        <v>75.435</v>
+        <v>75.43600000000001</v>
       </c>
       <c r="O236">
         <v>0.581</v>
@@ -25243,7 +25159,7 @@
         <v>0.765</v>
       </c>
       <c r="N238">
-        <v>86.42700000000001</v>
+        <v>86.42600000000002</v>
       </c>
       <c r="O238">
         <v>8.458</v>
@@ -25671,7 +25587,7 @@
         <v>2.42</v>
       </c>
       <c r="N242">
-        <v>67.42</v>
+        <v>67.42100000000001</v>
       </c>
       <c r="O242">
         <v>52.432</v>
@@ -25885,7 +25801,7 @@
         <v>1.076</v>
       </c>
       <c r="N244">
-        <v>25.025</v>
+        <v>25.024</v>
       </c>
       <c r="O244">
         <v>11.797</v>
@@ -26206,7 +26122,7 @@
         <v>2.445</v>
       </c>
       <c r="N247">
-        <v>5.506</v>
+        <v>5.505</v>
       </c>
       <c r="O247">
         <v>3.764</v>
@@ -27490,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="N259">
-        <v>19.236</v>
+        <v>19.237</v>
       </c>
       <c r="O259">
         <v>7.907</v>
@@ -28016,7 +27932,7 @@
         <v>4.964</v>
       </c>
       <c r="N264">
-        <v>73.89700000000001</v>
+        <v>73.89699999999999</v>
       </c>
       <c r="O264">
         <v>4.509</v>
@@ -28328,7 +28244,7 @@
         <v>0</v>
       </c>
       <c r="N267">
-        <v>82.295</v>
+        <v>82.29499999999999</v>
       </c>
       <c r="O267">
         <v>0.166</v>
@@ -28341,15 +28257,6 @@
       </c>
       <c r="R267">
         <v>0.834</v>
-      </c>
-      <c r="S267">
-        <v>0</v>
-      </c>
-      <c r="T267">
-        <v>0</v>
-      </c>
-      <c r="U267">
-        <v>0</v>
       </c>
       <c r="V267">
         <v>0</v>
@@ -28556,15 +28463,6 @@
       <c r="R269">
         <v>46.037</v>
       </c>
-      <c r="S269">
-        <v>0</v>
-      </c>
-      <c r="T269">
-        <v>0</v>
-      </c>
-      <c r="U269">
-        <v>0</v>
-      </c>
       <c r="V269">
         <v>23.181</v>
       </c>
@@ -28649,7 +28547,7 @@
         <v>0.8129999999999999</v>
       </c>
       <c r="N270">
-        <v>62.082</v>
+        <v>62.08300000000001</v>
       </c>
       <c r="O270">
         <v>0.142</v>
@@ -28961,7 +28859,7 @@
         <v>1.012</v>
       </c>
       <c r="N273">
-        <v>81.30500000000001</v>
+        <v>81.30499999999999</v>
       </c>
       <c r="O273">
         <v>11</v>
@@ -29059,7 +28957,7 @@
         <v>0</v>
       </c>
       <c r="N274">
-        <v>76.333</v>
+        <v>76.33200000000001</v>
       </c>
       <c r="O274">
         <v>0.768</v>
@@ -29072,15 +28970,6 @@
       </c>
       <c r="R274">
         <v>3.404</v>
-      </c>
-      <c r="S274">
-        <v>0</v>
-      </c>
-      <c r="T274">
-        <v>0</v>
-      </c>
-      <c r="U274">
-        <v>0</v>
       </c>
       <c r="V274">
         <v>0.029</v>
@@ -29166,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="N275">
-        <v>80.40900000000001</v>
+        <v>80.40799999999999</v>
       </c>
       <c r="O275">
         <v>0.19</v>
@@ -29264,7 +29153,7 @@
         <v>0</v>
       </c>
       <c r="N276">
-        <v>59.154</v>
+        <v>59.153</v>
       </c>
       <c r="O276">
         <v>0.316</v>
@@ -29277,15 +29166,6 @@
       </c>
       <c r="R276">
         <v>0.341</v>
-      </c>
-      <c r="S276">
-        <v>0</v>
-      </c>
-      <c r="T276">
-        <v>0</v>
-      </c>
-      <c r="U276">
-        <v>0</v>
       </c>
       <c r="V276">
         <v>0</v>
@@ -29478,7 +29358,7 @@
         <v>0</v>
       </c>
       <c r="N278">
-        <v>5.275</v>
+        <v>5.276</v>
       </c>
       <c r="O278">
         <v>3.993</v>
@@ -29599,15 +29479,6 @@
       <c r="R279">
         <v>4.568</v>
       </c>
-      <c r="S279">
-        <v>0</v>
-      </c>
-      <c r="T279">
-        <v>0</v>
-      </c>
-      <c r="U279">
-        <v>0</v>
-      </c>
       <c r="V279">
         <v>0.038</v>
       </c>
@@ -29692,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="N280">
-        <v>19.596</v>
+        <v>19.597</v>
       </c>
       <c r="O280">
         <v>0.271</v>
@@ -29790,7 +29661,7 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <v>75.943</v>
+        <v>75.94300000000001</v>
       </c>
       <c r="O281">
         <v>0.018</v>
@@ -30218,7 +30089,7 @@
         <v>0.429</v>
       </c>
       <c r="N285">
-        <v>78.22</v>
+        <v>78.22000000000001</v>
       </c>
       <c r="O285">
         <v>0</v>
@@ -30646,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="N289">
-        <v>78.315</v>
+        <v>78.31500000000001</v>
       </c>
       <c r="O289">
         <v>0</v>
@@ -30753,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="N290">
-        <v>74.767</v>
+        <v>74.768</v>
       </c>
       <c r="O290">
         <v>0</v>
@@ -31181,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="N294">
-        <v>73.366</v>
+        <v>73.367</v>
       </c>
       <c r="O294">
         <v>0</v>
@@ -31288,7 +31159,7 @@
         <v>0</v>
       </c>
       <c r="N295">
-        <v>79.169</v>
+        <v>79.16900000000001</v>
       </c>
       <c r="O295">
         <v>0</v>
@@ -31395,7 +31266,7 @@
         <v>0</v>
       </c>
       <c r="N296">
-        <v>85.97799999999999</v>
+        <v>85.97800000000001</v>
       </c>
       <c r="O296">
         <v>0</v>
@@ -32893,7 +32764,7 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <v>47.981</v>
+        <v>47.982</v>
       </c>
       <c r="O310">
         <v>30.729</v>
@@ -33107,7 +32978,7 @@
         <v>0</v>
       </c>
       <c r="N312">
-        <v>80.324</v>
+        <v>80.32400000000001</v>
       </c>
       <c r="O312">
         <v>0</v>
@@ -33214,7 +33085,7 @@
         <v>0.93</v>
       </c>
       <c r="N313">
-        <v>3.437</v>
+        <v>3.436</v>
       </c>
       <c r="O313">
         <v>0.38</v>
@@ -33428,7 +33299,7 @@
         <v>0</v>
       </c>
       <c r="N315">
-        <v>65.46599999999999</v>
+        <v>65.467</v>
       </c>
       <c r="O315">
         <v>25.498</v>
@@ -33856,7 +33727,7 @@
         <v>8.878</v>
       </c>
       <c r="N319">
-        <v>74.182</v>
+        <v>74.18199999999999</v>
       </c>
       <c r="O319">
         <v>1.227</v>
@@ -33868,7 +33739,7 @@
         <v>14.719</v>
       </c>
       <c r="R319">
-        <v>1.133</v>
+        <v>1.132</v>
       </c>
       <c r="S319">
         <v>1.075</v>
@@ -34070,7 +33941,7 @@
         <v>2.1</v>
       </c>
       <c r="N321">
-        <v>68.72799999999999</v>
+        <v>68.727</v>
       </c>
       <c r="O321">
         <v>2.033</v>
@@ -34403,7 +34274,7 @@
         <v>0</v>
       </c>
       <c r="R324">
-        <v>17.507</v>
+        <v>17.506</v>
       </c>
       <c r="S324">
         <v>14.322</v>
@@ -35152,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="R331">
-        <v>49.755</v>
+        <v>49.754</v>
       </c>
       <c r="S331">
         <v>48.772</v>
@@ -35259,7 +35130,7 @@
         <v>0</v>
       </c>
       <c r="R332">
-        <v>54.753</v>
+        <v>54.754</v>
       </c>
       <c r="S332">
         <v>48.45</v>
@@ -36117,15 +35988,6 @@
       <c r="R340">
         <v>55.874</v>
       </c>
-      <c r="S340">
-        <v>0</v>
-      </c>
-      <c r="T340">
-        <v>0</v>
-      </c>
-      <c r="U340">
-        <v>0</v>
-      </c>
       <c r="V340">
         <v>33.792</v>
       </c>
@@ -36210,7 +36072,7 @@
         <v>1.512</v>
       </c>
       <c r="N341">
-        <v>83.812</v>
+        <v>83.81200000000001</v>
       </c>
       <c r="O341">
         <v>6.44</v>
@@ -36223,15 +36085,6 @@
       </c>
       <c r="R341">
         <v>2.608</v>
-      </c>
-      <c r="S341">
-        <v>0</v>
-      </c>
-      <c r="T341">
-        <v>0</v>
-      </c>
-      <c r="U341">
-        <v>0</v>
       </c>
       <c r="V341">
         <v>0.012</v>
@@ -36317,7 +36170,7 @@
         <v>10.446</v>
       </c>
       <c r="N342">
-        <v>50.135</v>
+        <v>50.136</v>
       </c>
       <c r="O342">
         <v>14.681</v>
@@ -36330,15 +36183,6 @@
       </c>
       <c r="R342">
         <v>6.468</v>
-      </c>
-      <c r="S342">
-        <v>0</v>
-      </c>
-      <c r="T342">
-        <v>0</v>
-      </c>
-      <c r="U342">
-        <v>0</v>
       </c>
       <c r="V342">
         <v>0</v>
@@ -36424,7 +36268,7 @@
         <v>0.141</v>
       </c>
       <c r="N343">
-        <v>75.005</v>
+        <v>75.006</v>
       </c>
       <c r="O343">
         <v>2.151</v>
@@ -36536,15 +36380,6 @@
       <c r="R344">
         <v>0.333</v>
       </c>
-      <c r="S344">
-        <v>0</v>
-      </c>
-      <c r="T344">
-        <v>0</v>
-      </c>
-      <c r="U344">
-        <v>0</v>
-      </c>
       <c r="V344">
         <v>0.015</v>
       </c>
@@ -36629,7 +36464,7 @@
         <v>0</v>
       </c>
       <c r="N345">
-        <v>63.511</v>
+        <v>63.512</v>
       </c>
       <c r="O345">
         <v>59.24</v>
@@ -37057,7 +36892,7 @@
         <v>0.494</v>
       </c>
       <c r="N349">
-        <v>80.48</v>
+        <v>80.479</v>
       </c>
       <c r="O349">
         <v>7.116</v>
@@ -37070,15 +36905,6 @@
       </c>
       <c r="R349">
         <v>1.393</v>
-      </c>
-      <c r="S349">
-        <v>0</v>
-      </c>
-      <c r="T349">
-        <v>0</v>
-      </c>
-      <c r="U349">
-        <v>0</v>
       </c>
       <c r="V349">
         <v>0.374</v>
@@ -37178,15 +37004,6 @@
       <c r="R350">
         <v>1.859</v>
       </c>
-      <c r="S350">
-        <v>0</v>
-      </c>
-      <c r="T350">
-        <v>0</v>
-      </c>
-      <c r="U350">
-        <v>0</v>
-      </c>
       <c r="V350">
         <v>0</v>
       </c>
@@ -37271,7 +37088,7 @@
         <v>0.136</v>
       </c>
       <c r="N351">
-        <v>70.907</v>
+        <v>70.90600000000001</v>
       </c>
       <c r="O351">
         <v>3.084</v>
@@ -37284,15 +37101,6 @@
       </c>
       <c r="R351">
         <v>0.234</v>
-      </c>
-      <c r="S351">
-        <v>0</v>
-      </c>
-      <c r="T351">
-        <v>0</v>
-      </c>
-      <c r="U351">
-        <v>0</v>
       </c>
       <c r="V351">
         <v>0.054</v>
@@ -37378,7 +37186,7 @@
         <v>1.186</v>
       </c>
       <c r="N352">
-        <v>74.508</v>
+        <v>74.50800000000001</v>
       </c>
       <c r="O352">
         <v>0.986</v>
@@ -37391,15 +37199,6 @@
       </c>
       <c r="R352">
         <v>1.002</v>
-      </c>
-      <c r="S352">
-        <v>0</v>
-      </c>
-      <c r="T352">
-        <v>0</v>
-      </c>
-      <c r="U352">
-        <v>0</v>
       </c>
       <c r="V352">
         <v>0.019</v>
@@ -37485,7 +37284,7 @@
         <v>0.055</v>
       </c>
       <c r="N353">
-        <v>74.06999999999999</v>
+        <v>74.069</v>
       </c>
       <c r="O353">
         <v>0.451</v>
@@ -37498,15 +37297,6 @@
       </c>
       <c r="R353">
         <v>1.061</v>
-      </c>
-      <c r="S353">
-        <v>0</v>
-      </c>
-      <c r="T353">
-        <v>0</v>
-      </c>
-      <c r="U353">
-        <v>0</v>
       </c>
       <c r="V353">
         <v>0</v>
@@ -37592,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="N354">
-        <v>79.06399999999999</v>
+        <v>79.06400000000001</v>
       </c>
       <c r="O354">
         <v>0.661</v>
@@ -37605,15 +37395,6 @@
       </c>
       <c r="R354">
         <v>0.328</v>
-      </c>
-      <c r="S354">
-        <v>0</v>
-      </c>
-      <c r="T354">
-        <v>0</v>
-      </c>
-      <c r="U354">
-        <v>0</v>
       </c>
       <c r="V354">
         <v>0</v>
@@ -37699,7 +37480,7 @@
         <v>0.296</v>
       </c>
       <c r="N355">
-        <v>80.437</v>
+        <v>80.43599999999999</v>
       </c>
       <c r="O355">
         <v>2.649</v>
@@ -37712,15 +37493,6 @@
       </c>
       <c r="R355">
         <v>0.971</v>
-      </c>
-      <c r="S355">
-        <v>0</v>
-      </c>
-      <c r="T355">
-        <v>0</v>
-      </c>
-      <c r="U355">
-        <v>0</v>
       </c>
       <c r="V355">
         <v>0.09</v>
@@ -37820,15 +37592,6 @@
       <c r="R356">
         <v>1.865</v>
       </c>
-      <c r="S356">
-        <v>0</v>
-      </c>
-      <c r="T356">
-        <v>0</v>
-      </c>
-      <c r="U356">
-        <v>0</v>
-      </c>
       <c r="V356">
         <v>0</v>
       </c>
@@ -38034,15 +37797,6 @@
       <c r="R358">
         <v>1.172</v>
       </c>
-      <c r="S358">
-        <v>0</v>
-      </c>
-      <c r="T358">
-        <v>0</v>
-      </c>
-      <c r="U358">
-        <v>0</v>
-      </c>
       <c r="V358">
         <v>0</v>
       </c>
@@ -38127,7 +37881,7 @@
         <v>0.078</v>
       </c>
       <c r="N359">
-        <v>87.542</v>
+        <v>87.54199999999999</v>
       </c>
       <c r="O359">
         <v>2.085</v>
@@ -38140,15 +37894,6 @@
       </c>
       <c r="R359">
         <v>0.697</v>
-      </c>
-      <c r="S359">
-        <v>0</v>
-      </c>
-      <c r="T359">
-        <v>0</v>
-      </c>
-      <c r="U359">
-        <v>0</v>
       </c>
       <c r="V359">
         <v>0.004</v>
@@ -38341,7 +38086,7 @@
         <v>0</v>
       </c>
       <c r="N361">
-        <v>85.215</v>
+        <v>85.21499999999999</v>
       </c>
       <c r="O361">
         <v>0.729</v>
@@ -38354,15 +38099,6 @@
       </c>
       <c r="R361">
         <v>2.088</v>
-      </c>
-      <c r="S361">
-        <v>0</v>
-      </c>
-      <c r="T361">
-        <v>0</v>
-      </c>
-      <c r="U361">
-        <v>0</v>
       </c>
       <c r="V361">
         <v>0.011</v>
@@ -38448,7 +38184,7 @@
         <v>0.789</v>
       </c>
       <c r="N362">
-        <v>78.191</v>
+        <v>78.19099999999999</v>
       </c>
       <c r="O362">
         <v>6.414</v>
@@ -38461,15 +38197,6 @@
       </c>
       <c r="R362">
         <v>5.121</v>
-      </c>
-      <c r="S362">
-        <v>0</v>
-      </c>
-      <c r="T362">
-        <v>0</v>
-      </c>
-      <c r="U362">
-        <v>0</v>
       </c>
       <c r="V362">
         <v>0.001</v>
@@ -38676,15 +38403,6 @@
       <c r="R364">
         <v>0.254</v>
       </c>
-      <c r="S364">
-        <v>0</v>
-      </c>
-      <c r="T364">
-        <v>0</v>
-      </c>
-      <c r="U364">
-        <v>0</v>
-      </c>
       <c r="V364">
         <v>0.003</v>
       </c>
@@ -38769,7 +38487,7 @@
         <v>8.954000000000001</v>
       </c>
       <c r="N365">
-        <v>77.279</v>
+        <v>77.28</v>
       </c>
       <c r="O365">
         <v>4.928</v>
@@ -38782,15 +38500,6 @@
       </c>
       <c r="R365">
         <v>2.444</v>
-      </c>
-      <c r="S365">
-        <v>0</v>
-      </c>
-      <c r="T365">
-        <v>0</v>
-      </c>
-      <c r="U365">
-        <v>0</v>
       </c>
       <c r="V365">
         <v>0.022</v>
@@ -38890,15 +38599,6 @@
       <c r="R366">
         <v>1.758</v>
       </c>
-      <c r="S366">
-        <v>0</v>
-      </c>
-      <c r="T366">
-        <v>0</v>
-      </c>
-      <c r="U366">
-        <v>0</v>
-      </c>
       <c r="V366">
         <v>0.013</v>
       </c>
@@ -38983,7 +38683,7 @@
         <v>5.276</v>
       </c>
       <c r="N367">
-        <v>79.48399999999999</v>
+        <v>79.483</v>
       </c>
       <c r="O367">
         <v>4.367</v>
@@ -38996,15 +38696,6 @@
       </c>
       <c r="R367">
         <v>1.009</v>
-      </c>
-      <c r="S367">
-        <v>0</v>
-      </c>
-      <c r="T367">
-        <v>0</v>
-      </c>
-      <c r="U367">
-        <v>0</v>
       </c>
       <c r="V367">
         <v>0.097</v>
@@ -39090,7 +38781,7 @@
         <v>0.62</v>
       </c>
       <c r="N368">
-        <v>79.151</v>
+        <v>79.15199999999999</v>
       </c>
       <c r="O368">
         <v>2.57</v>
@@ -39103,15 +38794,6 @@
       </c>
       <c r="R368">
         <v>3.087</v>
-      </c>
-      <c r="S368">
-        <v>0</v>
-      </c>
-      <c r="T368">
-        <v>0</v>
-      </c>
-      <c r="U368">
-        <v>0</v>
       </c>
       <c r="V368">
         <v>0.027</v>
@@ -39197,7 +38879,7 @@
         <v>0.023</v>
       </c>
       <c r="N369">
-        <v>89.42100000000001</v>
+        <v>89.41999999999999</v>
       </c>
       <c r="O369">
         <v>0.984</v>
@@ -39210,15 +38892,6 @@
       </c>
       <c r="R369">
         <v>0.213</v>
-      </c>
-      <c r="S369">
-        <v>0</v>
-      </c>
-      <c r="T369">
-        <v>0</v>
-      </c>
-      <c r="U369">
-        <v>0</v>
       </c>
       <c r="V369">
         <v>0</v>
@@ -39318,15 +38991,6 @@
       <c r="R370">
         <v>0.456</v>
       </c>
-      <c r="S370">
-        <v>0</v>
-      </c>
-      <c r="T370">
-        <v>0</v>
-      </c>
-      <c r="U370">
-        <v>0</v>
-      </c>
       <c r="V370">
         <v>0.224</v>
       </c>
@@ -39411,7 +39075,7 @@
         <v>0.136</v>
       </c>
       <c r="N371">
-        <v>81.553</v>
+        <v>81.55300000000001</v>
       </c>
       <c r="O371">
         <v>1.79</v>
@@ -39424,15 +39088,6 @@
       </c>
       <c r="R371">
         <v>0.961</v>
-      </c>
-      <c r="S371">
-        <v>0</v>
-      </c>
-      <c r="T371">
-        <v>0</v>
-      </c>
-      <c r="U371">
-        <v>0</v>
       </c>
       <c r="V371">
         <v>0.061</v>
@@ -39518,7 +39173,7 @@
         <v>0</v>
       </c>
       <c r="N372">
-        <v>83.78400000000001</v>
+        <v>83.78399999999999</v>
       </c>
       <c r="O372">
         <v>0.801</v>
@@ -39531,15 +39186,6 @@
       </c>
       <c r="R372">
         <v>2.065</v>
-      </c>
-      <c r="S372">
-        <v>0</v>
-      </c>
-      <c r="T372">
-        <v>0</v>
-      </c>
-      <c r="U372">
-        <v>0</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -39625,7 +39271,7 @@
         <v>0</v>
       </c>
       <c r="N373">
-        <v>66.68899999999999</v>
+        <v>66.688</v>
       </c>
       <c r="O373">
         <v>4.145</v>
@@ -39638,15 +39284,6 @@
       </c>
       <c r="R373">
         <v>0.217</v>
-      </c>
-      <c r="S373">
-        <v>0</v>
-      </c>
-      <c r="T373">
-        <v>0</v>
-      </c>
-      <c r="U373">
-        <v>0</v>
       </c>
       <c r="V373">
         <v>0.195</v>
@@ -39732,7 +39369,7 @@
         <v>1.043</v>
       </c>
       <c r="N374">
-        <v>82.762</v>
+        <v>82.76300000000001</v>
       </c>
       <c r="O374">
         <v>5.189</v>
@@ -39745,15 +39382,6 @@
       </c>
       <c r="R374">
         <v>1.692</v>
-      </c>
-      <c r="S374">
-        <v>0</v>
-      </c>
-      <c r="T374">
-        <v>0</v>
-      </c>
-      <c r="U374">
-        <v>0</v>
       </c>
       <c r="V374">
         <v>0</v>
@@ -39839,7 +39467,7 @@
         <v>0.382</v>
       </c>
       <c r="N375">
-        <v>84.432</v>
+        <v>84.43199999999999</v>
       </c>
       <c r="O375">
         <v>3.508</v>
@@ -39852,15 +39480,6 @@
       </c>
       <c r="R375">
         <v>0.418</v>
-      </c>
-      <c r="S375">
-        <v>0</v>
-      </c>
-      <c r="T375">
-        <v>0</v>
-      </c>
-      <c r="U375">
-        <v>0</v>
       </c>
       <c r="V375">
         <v>0</v>
@@ -39960,15 +39579,6 @@
       <c r="R376">
         <v>2.157</v>
       </c>
-      <c r="S376">
-        <v>0</v>
-      </c>
-      <c r="T376">
-        <v>0</v>
-      </c>
-      <c r="U376">
-        <v>0</v>
-      </c>
       <c r="V376">
         <v>0.066</v>
       </c>
@@ -40067,15 +39677,6 @@
       <c r="R377">
         <v>0.217</v>
       </c>
-      <c r="S377">
-        <v>0</v>
-      </c>
-      <c r="T377">
-        <v>0</v>
-      </c>
-      <c r="U377">
-        <v>0</v>
-      </c>
       <c r="V377">
         <v>0</v>
       </c>
@@ -40174,15 +39775,6 @@
       <c r="R378">
         <v>0.244</v>
       </c>
-      <c r="S378">
-        <v>0</v>
-      </c>
-      <c r="T378">
-        <v>0</v>
-      </c>
-      <c r="U378">
-        <v>0</v>
-      </c>
       <c r="V378">
         <v>0.015</v>
       </c>
@@ -40281,15 +39873,6 @@
       <c r="R379">
         <v>1.018</v>
       </c>
-      <c r="S379">
-        <v>0</v>
-      </c>
-      <c r="T379">
-        <v>0</v>
-      </c>
-      <c r="U379">
-        <v>0</v>
-      </c>
       <c r="V379">
         <v>0</v>
       </c>
@@ -40388,15 +39971,6 @@
       <c r="R380">
         <v>6.121</v>
       </c>
-      <c r="S380">
-        <v>0</v>
-      </c>
-      <c r="T380">
-        <v>0</v>
-      </c>
-      <c r="U380">
-        <v>0</v>
-      </c>
       <c r="V380">
         <v>0</v>
       </c>
@@ -40495,15 +40069,6 @@
       <c r="R381">
         <v>0.8</v>
       </c>
-      <c r="S381">
-        <v>0</v>
-      </c>
-      <c r="T381">
-        <v>0</v>
-      </c>
-      <c r="U381">
-        <v>0</v>
-      </c>
       <c r="V381">
         <v>0.206</v>
       </c>
@@ -40602,15 +40167,6 @@
       <c r="R382">
         <v>0.111</v>
       </c>
-      <c r="S382">
-        <v>0</v>
-      </c>
-      <c r="T382">
-        <v>0</v>
-      </c>
-      <c r="U382">
-        <v>0</v>
-      </c>
       <c r="V382">
         <v>0</v>
       </c>
@@ -40816,15 +40372,6 @@
       <c r="R384">
         <v>7.067</v>
       </c>
-      <c r="S384">
-        <v>0</v>
-      </c>
-      <c r="T384">
-        <v>0</v>
-      </c>
-      <c r="U384">
-        <v>0</v>
-      </c>
       <c r="V384">
         <v>0.842</v>
       </c>
@@ -40909,7 +40456,7 @@
         <v>1.27</v>
       </c>
       <c r="N385">
-        <v>68.52500000000001</v>
+        <v>68.524</v>
       </c>
       <c r="O385">
         <v>2.09</v>
@@ -40922,15 +40469,6 @@
       </c>
       <c r="R385">
         <v>4.467</v>
-      </c>
-      <c r="S385">
-        <v>0</v>
-      </c>
-      <c r="T385">
-        <v>0</v>
-      </c>
-      <c r="U385">
-        <v>0</v>
       </c>
       <c r="V385">
         <v>0</v>
@@ -41016,7 +40554,7 @@
         <v>1.177</v>
       </c>
       <c r="N386">
-        <v>81.673</v>
+        <v>81.67400000000001</v>
       </c>
       <c r="O386">
         <v>4.718</v>
@@ -41029,15 +40567,6 @@
       </c>
       <c r="R386">
         <v>2.761</v>
-      </c>
-      <c r="S386">
-        <v>0</v>
-      </c>
-      <c r="T386">
-        <v>0</v>
-      </c>
-      <c r="U386">
-        <v>0</v>
       </c>
       <c r="V386">
         <v>0</v>
@@ -41123,7 +40652,7 @@
         <v>0</v>
       </c>
       <c r="N387">
-        <v>56.579</v>
+        <v>56.57899999999999</v>
       </c>
       <c r="O387">
         <v>1.138</v>
@@ -41136,15 +40665,6 @@
       </c>
       <c r="R387">
         <v>13.59</v>
-      </c>
-      <c r="S387">
-        <v>0</v>
-      </c>
-      <c r="T387">
-        <v>0</v>
-      </c>
-      <c r="U387">
-        <v>0</v>
       </c>
       <c r="V387">
         <v>0.146</v>
@@ -41230,7 +40750,7 @@
         <v>0.15</v>
       </c>
       <c r="N388">
-        <v>82.95399999999999</v>
+        <v>82.95400000000001</v>
       </c>
       <c r="O388">
         <v>0.614</v>
@@ -41243,15 +40763,6 @@
       </c>
       <c r="R388">
         <v>1.979</v>
-      </c>
-      <c r="S388">
-        <v>0</v>
-      </c>
-      <c r="T388">
-        <v>0</v>
-      </c>
-      <c r="U388">
-        <v>0</v>
       </c>
       <c r="V388">
         <v>0.053</v>
@@ -41458,15 +40969,6 @@
       <c r="R390">
         <v>8.677</v>
       </c>
-      <c r="S390">
-        <v>0</v>
-      </c>
-      <c r="T390">
-        <v>0</v>
-      </c>
-      <c r="U390">
-        <v>0</v>
-      </c>
       <c r="V390">
         <v>0</v>
       </c>
@@ -41886,15 +41388,6 @@
       <c r="R394">
         <v>1.65</v>
       </c>
-      <c r="S394">
-        <v>0</v>
-      </c>
-      <c r="T394">
-        <v>0</v>
-      </c>
-      <c r="U394">
-        <v>0</v>
-      </c>
       <c r="V394">
         <v>0.035</v>
       </c>
@@ -42314,15 +41807,6 @@
       <c r="R398">
         <v>1.151</v>
       </c>
-      <c r="S398">
-        <v>0</v>
-      </c>
-      <c r="T398">
-        <v>0</v>
-      </c>
-      <c r="U398">
-        <v>0</v>
-      </c>
       <c r="V398">
         <v>0</v>
       </c>
@@ -42421,15 +41905,6 @@
       <c r="R399">
         <v>0.369</v>
       </c>
-      <c r="S399">
-        <v>0</v>
-      </c>
-      <c r="T399">
-        <v>0</v>
-      </c>
-      <c r="U399">
-        <v>0</v>
-      </c>
       <c r="V399">
         <v>0</v>
       </c>
@@ -42514,7 +41989,7 @@
         <v>0</v>
       </c>
       <c r="N400">
-        <v>84.80500000000001</v>
+        <v>84.804</v>
       </c>
       <c r="O400">
         <v>0.431</v>
@@ -42742,15 +42217,6 @@
       <c r="R402">
         <v>1.393</v>
       </c>
-      <c r="S402">
-        <v>0</v>
-      </c>
-      <c r="T402">
-        <v>0</v>
-      </c>
-      <c r="U402">
-        <v>0</v>
-      </c>
       <c r="V402">
         <v>0</v>
       </c>
@@ -42835,7 +42301,7 @@
         <v>0</v>
       </c>
       <c r="N403">
-        <v>82.193</v>
+        <v>82.194</v>
       </c>
       <c r="O403">
         <v>2.247</v>
@@ -42848,15 +42314,6 @@
       </c>
       <c r="R403">
         <v>0.24</v>
-      </c>
-      <c r="S403">
-        <v>0</v>
-      </c>
-      <c r="T403">
-        <v>0</v>
-      </c>
-      <c r="U403">
-        <v>0</v>
       </c>
       <c r="V403">
         <v>0</v>
@@ -43138,7 +42595,7 @@
         <v>0.103</v>
       </c>
       <c r="N406">
-        <v>84.24299999999999</v>
+        <v>84.24300000000001</v>
       </c>
       <c r="O406">
         <v>2.979</v>
@@ -43236,7 +42693,7 @@
         <v>0.097</v>
       </c>
       <c r="N407">
-        <v>83.907</v>
+        <v>83.90700000000001</v>
       </c>
       <c r="O407">
         <v>2.036</v>
@@ -43334,7 +42791,7 @@
         <v>1.16</v>
       </c>
       <c r="N408">
-        <v>84.34099999999999</v>
+        <v>84.34</v>
       </c>
       <c r="O408">
         <v>3.406</v>
@@ -43628,7 +43085,7 @@
         <v>0.004</v>
       </c>
       <c r="N411">
-        <v>74.70699999999999</v>
+        <v>74.708</v>
       </c>
       <c r="O411">
         <v>18.548</v>
@@ -44243,7 +43700,7 @@
         <v>7.866</v>
       </c>
       <c r="N417">
-        <v>69.18600000000001</v>
+        <v>69.185</v>
       </c>
       <c r="O417">
         <v>7.135</v>
@@ -44341,7 +43798,7 @@
         <v>0</v>
       </c>
       <c r="N418">
-        <v>72.66</v>
+        <v>72.661</v>
       </c>
       <c r="O418">
         <v>0.645</v>
@@ -44439,7 +43896,7 @@
         <v>3.088</v>
       </c>
       <c r="N419">
-        <v>80.468</v>
+        <v>80.467</v>
       </c>
       <c r="O419">
         <v>7.233</v>
@@ -44858,7 +44315,7 @@
         <v>1.003</v>
       </c>
       <c r="N423">
-        <v>77.718</v>
+        <v>77.71899999999999</v>
       </c>
       <c r="O423">
         <v>6.534</v>
@@ -44956,7 +44413,7 @@
         <v>0</v>
       </c>
       <c r="N424">
-        <v>75.78700000000001</v>
+        <v>75.78699999999999</v>
       </c>
       <c r="O424">
         <v>1.996</v>
@@ -45054,7 +44511,7 @@
         <v>0</v>
       </c>
       <c r="N425">
-        <v>80.56100000000001</v>
+        <v>80.56</v>
       </c>
       <c r="O425">
         <v>14.531</v>
@@ -45259,7 +44716,7 @@
         <v>0</v>
       </c>
       <c r="N427">
-        <v>81.601</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="O427">
         <v>1.632</v>
@@ -45455,7 +44912,7 @@
         <v>0</v>
       </c>
       <c r="N429">
-        <v>83.358</v>
+        <v>83.357</v>
       </c>
       <c r="O429">
         <v>0.25</v>
@@ -45651,7 +45108,7 @@
         <v>0.395</v>
       </c>
       <c r="N431">
-        <v>89.276</v>
+        <v>89.27600000000001</v>
       </c>
       <c r="O431">
         <v>1.611</v>
@@ -45752,7 +45209,7 @@
         <v>0.34</v>
       </c>
       <c r="R432">
-        <v>11.61</v>
+        <v>11.611</v>
       </c>
       <c r="S432">
         <v>0</v>
@@ -46417,7 +45874,7 @@
         <v>50.158</v>
       </c>
       <c r="R439">
-        <v>30.018</v>
+        <v>30.017</v>
       </c>
       <c r="S439">
         <v>13.468</v>
@@ -46604,7 +46061,7 @@
         <v>0</v>
       </c>
       <c r="N441">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O441">
         <v>0</v>
@@ -46616,7 +46073,7 @@
         <v>0</v>
       </c>
       <c r="R441">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="S441">
         <v>0</v>
@@ -46711,7 +46168,7 @@
         <v>0</v>
       </c>
       <c r="N442">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O442">
         <v>0</v>
@@ -46723,7 +46180,7 @@
         <v>0</v>
       </c>
       <c r="R442">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="S442">
         <v>0</v>
@@ -46832,15 +46289,6 @@
       <c r="R443">
         <v>20.4</v>
       </c>
-      <c r="S443">
-        <v>0</v>
-      </c>
-      <c r="T443">
-        <v>0</v>
-      </c>
-      <c r="U443">
-        <v>0</v>
-      </c>
       <c r="V443">
         <v>70</v>
       </c>
@@ -46925,7 +46373,7 @@
         <v>0</v>
       </c>
       <c r="N444">
-        <v>0</v>
+        <v>38.7</v>
       </c>
       <c r="O444">
         <v>2.7</v>
@@ -46937,7 +46385,7 @@
         <v>0</v>
       </c>
       <c r="R444">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="S444">
         <v>4</v>
@@ -47044,7 +46492,7 @@
         <v>0</v>
       </c>
       <c r="R445">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="S445">
         <v>9.5</v>
@@ -47151,7 +46599,7 @@
         <v>0</v>
       </c>
       <c r="R446">
-        <v>0</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="S446">
         <v>0</v>
@@ -47246,7 +46694,7 @@
         <v>0</v>
       </c>
       <c r="N447">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="O447">
         <v>0.5</v>
@@ -47258,7 +46706,7 @@
         <v>0</v>
       </c>
       <c r="R447">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="S447">
         <v>12.7</v>
@@ -47365,7 +46813,7 @@
         <v>0</v>
       </c>
       <c r="R448">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S448">
         <v>20</v>
@@ -47472,7 +46920,7 @@
         <v>0</v>
       </c>
       <c r="R449">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="S449">
         <v>85</v>
@@ -47579,7 +47027,7 @@
         <v>0</v>
       </c>
       <c r="R450">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="S450">
         <v>84.3</v>
@@ -47686,7 +47134,7 @@
         <v>0</v>
       </c>
       <c r="R451">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S451">
         <v>10</v>
@@ -47781,7 +47229,7 @@
         <v>0</v>
       </c>
       <c r="N452">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O452">
         <v>15</v>
@@ -47793,7 +47241,7 @@
         <v>0</v>
       </c>
       <c r="R452">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S452">
         <v>0</v>
@@ -47900,7 +47348,7 @@
         <v>0</v>
       </c>
       <c r="R453">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="S453">
         <v>34.5</v>
@@ -47995,7 +47443,7 @@
         <v>0</v>
       </c>
       <c r="N454">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="O454">
         <v>0.2</v>
@@ -48007,7 +47455,7 @@
         <v>0</v>
       </c>
       <c r="R454">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="S454">
         <v>0.8</v>
@@ -48102,7 +47550,7 @@
         <v>0</v>
       </c>
       <c r="N455">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O455">
         <v>0</v>
@@ -48114,7 +47562,7 @@
         <v>0</v>
       </c>
       <c r="R455">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S455">
         <v>10</v>
@@ -48209,7 +47657,7 @@
         <v>0</v>
       </c>
       <c r="N456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O456">
         <v>1</v>
@@ -48221,7 +47669,7 @@
         <v>0</v>
       </c>
       <c r="R456">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="S456">
         <v>10</v>
@@ -48328,7 +47776,7 @@
         <v>0</v>
       </c>
       <c r="R457">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S457">
         <v>10</v>
@@ -48435,7 +47883,7 @@
         <v>0</v>
       </c>
       <c r="R458">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="S458">
         <v>40</v>
@@ -48530,7 +47978,7 @@
         <v>0</v>
       </c>
       <c r="N459">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O459">
         <v>0</v>
@@ -48542,7 +47990,7 @@
         <v>0</v>
       </c>
       <c r="R459">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S459">
         <v>10</v>
@@ -48637,7 +48085,7 @@
         <v>0</v>
       </c>
       <c r="N460">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O460">
         <v>2</v>
@@ -48649,7 +48097,7 @@
         <v>0</v>
       </c>
       <c r="R460">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="S460">
         <v>98</v>
@@ -48756,7 +48204,7 @@
         <v>0</v>
       </c>
       <c r="R461">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S461">
         <v>30</v>
@@ -48863,7 +48311,7 @@
         <v>0</v>
       </c>
       <c r="R462">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="S462">
         <v>25</v>
@@ -48955,7 +48403,7 @@
         <v>0</v>
       </c>
       <c r="N463">
-        <v>99.995</v>
+        <v>99.994</v>
       </c>
       <c r="O463">
         <v>82.593</v>
@@ -49787,7 +49235,7 @@
         <v>0</v>
       </c>
       <c r="N471">
-        <v>99.038</v>
+        <v>99.03800000000001</v>
       </c>
       <c r="O471">
         <v>2.736</v>
@@ -49891,7 +49339,7 @@
         <v>0</v>
       </c>
       <c r="N472">
-        <v>52.138</v>
+        <v>52.13700000000001</v>
       </c>
       <c r="O472">
         <v>40.261</v>
@@ -50723,7 +50171,7 @@
         <v>0</v>
       </c>
       <c r="N480">
-        <v>82.383</v>
+        <v>82.38199999999999</v>
       </c>
       <c r="O480">
         <v>63.917</v>
@@ -50931,7 +50379,7 @@
         <v>0</v>
       </c>
       <c r="N482">
-        <v>93.988</v>
+        <v>93.989</v>
       </c>
       <c r="O482">
         <v>36.975</v>
@@ -51035,7 +50483,7 @@
         <v>0</v>
       </c>
       <c r="N483">
-        <v>80.413</v>
+        <v>80.41200000000001</v>
       </c>
       <c r="O483">
         <v>60.676</v>
@@ -51347,7 +50795,7 @@
         <v>0</v>
       </c>
       <c r="N486">
-        <v>91.465</v>
+        <v>91.464</v>
       </c>
       <c r="O486">
         <v>0.449</v>
@@ -51555,7 +51003,7 @@
         <v>0</v>
       </c>
       <c r="N488">
-        <v>80.773</v>
+        <v>80.77200000000001</v>
       </c>
       <c r="O488">
         <v>45.202</v>
@@ -51971,7 +51419,7 @@
         <v>0</v>
       </c>
       <c r="N492">
-        <v>75.31</v>
+        <v>75.30999999999999</v>
       </c>
       <c r="O492">
         <v>45.567</v>
@@ -52283,7 +51731,7 @@
         <v>0</v>
       </c>
       <c r="N495">
-        <v>71.042</v>
+        <v>71.041</v>
       </c>
       <c r="O495">
         <v>45.746</v>
@@ -52595,7 +52043,7 @@
         <v>0</v>
       </c>
       <c r="N498">
-        <v>56.028</v>
+        <v>56.029</v>
       </c>
       <c r="O498">
         <v>24.374</v>
@@ -52803,7 +52251,7 @@
         <v>0</v>
       </c>
       <c r="N500">
-        <v>63.719</v>
+        <v>63.71899999999999</v>
       </c>
       <c r="O500">
         <v>28.898</v>
@@ -52907,7 +52355,7 @@
         <v>0</v>
       </c>
       <c r="N501">
-        <v>42.799</v>
+        <v>42.8</v>
       </c>
       <c r="O501">
         <v>27.591</v>
@@ -53023,7 +52471,7 @@
         <v>7.79</v>
       </c>
       <c r="R502">
-        <v>2.677</v>
+        <v>2.676</v>
       </c>
       <c r="S502">
         <v>0.006</v>
@@ -53115,7 +52563,7 @@
         <v>0</v>
       </c>
       <c r="N503">
-        <v>57.658</v>
+        <v>57.65799999999999</v>
       </c>
       <c r="O503">
         <v>33.056</v>
@@ -53531,7 +52979,7 @@
         <v>0</v>
       </c>
       <c r="N507">
-        <v>50.937</v>
+        <v>50.936</v>
       </c>
       <c r="O507">
         <v>31.757</v>
@@ -53635,7 +53083,7 @@
         <v>0</v>
       </c>
       <c r="N508">
-        <v>51.471</v>
+        <v>51.47</v>
       </c>
       <c r="O508">
         <v>43.697</v>
@@ -53739,7 +53187,7 @@
         <v>0</v>
       </c>
       <c r="N509">
-        <v>93.717</v>
+        <v>93.71599999999999</v>
       </c>
       <c r="O509">
         <v>7.948</v>
@@ -53947,7 +53395,7 @@
         <v>0</v>
       </c>
       <c r="N511">
-        <v>75.405</v>
+        <v>75.40600000000001</v>
       </c>
       <c r="O511">
         <v>37.032</v>
@@ -54051,7 +53499,7 @@
         <v>0</v>
       </c>
       <c r="N512">
-        <v>90.13</v>
+        <v>90.131</v>
       </c>
       <c r="O512">
         <v>56.983</v>
@@ -54259,7 +53707,7 @@
         <v>0</v>
       </c>
       <c r="N514">
-        <v>79.246</v>
+        <v>79.245</v>
       </c>
       <c r="O514">
         <v>73.548</v>
@@ -54571,7 +54019,7 @@
         <v>0</v>
       </c>
       <c r="N517">
-        <v>77.41200000000001</v>
+        <v>77.41300000000001</v>
       </c>
       <c r="O517">
         <v>47.56</v>
@@ -55091,7 +54539,7 @@
         <v>0</v>
       </c>
       <c r="N522">
-        <v>78.621</v>
+        <v>78.62100000000001</v>
       </c>
       <c r="O522">
         <v>27.069</v>
@@ -55195,7 +54643,7 @@
         <v>0</v>
       </c>
       <c r="N523">
-        <v>90.852</v>
+        <v>90.851</v>
       </c>
       <c r="O523">
         <v>68.384</v>
@@ -55507,7 +54955,7 @@
         <v>10.836</v>
       </c>
       <c r="N526">
-        <v>75.10299999999999</v>
+        <v>75.10300000000001</v>
       </c>
       <c r="O526">
         <v>17.698</v>
@@ -55715,7 +55163,7 @@
         <v>10.929</v>
       </c>
       <c r="N528">
-        <v>83.497</v>
+        <v>83.49799999999999</v>
       </c>
       <c r="O528">
         <v>2.077</v>
@@ -55819,7 +55267,7 @@
         <v>0</v>
       </c>
       <c r="N529">
-        <v>73.276</v>
+        <v>73.277</v>
       </c>
       <c r="O529">
         <v>6.897</v>
@@ -55923,7 +55371,7 @@
         <v>0</v>
       </c>
       <c r="N530">
-        <v>85.792</v>
+        <v>85.791</v>
       </c>
       <c r="O530">
         <v>21.945</v>
@@ -56235,7 +55683,7 @@
         <v>0</v>
       </c>
       <c r="N533">
-        <v>74.419</v>
+        <v>74.41900000000001</v>
       </c>
       <c r="O533">
         <v>0</v>
@@ -56339,7 +55787,7 @@
         <v>0</v>
       </c>
       <c r="N534">
-        <v>90.80800000000001</v>
+        <v>90.80799999999999</v>
       </c>
       <c r="O534">
         <v>34.113</v>
@@ -56351,7 +55799,7 @@
         <v>15.055</v>
       </c>
       <c r="R534">
-        <v>1.624</v>
+        <v>1.625</v>
       </c>
       <c r="S534">
         <v>0.436</v>
@@ -56443,7 +55891,7 @@
         <v>0</v>
       </c>
       <c r="N535">
-        <v>66.667</v>
+        <v>66.666</v>
       </c>
       <c r="O535">
         <v>10.861</v>
@@ -56547,7 +55995,7 @@
         <v>0.032</v>
       </c>
       <c r="N536">
-        <v>69.30200000000001</v>
+        <v>69.303</v>
       </c>
       <c r="O536">
         <v>5.432</v>
@@ -56559,7 +56007,7 @@
         <v>27.773</v>
       </c>
       <c r="R536">
-        <v>3.519</v>
+        <v>3.518</v>
       </c>
       <c r="S536">
         <v>0.227</v>
@@ -56651,7 +56099,7 @@
         <v>0</v>
       </c>
       <c r="N537">
-        <v>89.02200000000001</v>
+        <v>89.02199999999999</v>
       </c>
       <c r="O537">
         <v>44.795</v>
@@ -56663,7 +56111,7 @@
         <v>23.091</v>
       </c>
       <c r="R537">
-        <v>1.956</v>
+        <v>1.955</v>
       </c>
       <c r="S537">
         <v>0.946</v>
